--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/utilities/costs.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/utilities/costs.xlsx
@@ -513,49 +513,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>597.2866807820398</v>
+        <v>1699.520191591581</v>
       </c>
       <c r="B2" t="n">
-        <v>1438.065324945237</v>
+        <v>1498.524573067472</v>
       </c>
       <c r="C2" t="n">
-        <v>3063.162570489233</v>
+        <v>580.4670518468688</v>
       </c>
       <c r="D2" t="n">
-        <v>1340.169702376767</v>
+        <v>2316.902167869936</v>
       </c>
       <c r="E2" t="n">
-        <v>447.5134326966016</v>
+        <v>742.2927749227415</v>
       </c>
       <c r="F2" t="n">
-        <v>1739.991314307242</v>
+        <v>3331.751098544604</v>
       </c>
       <c r="G2" t="n">
-        <v>2188.125325274027</v>
+        <v>2396.390061559574</v>
       </c>
       <c r="H2" t="n">
-        <v>1141.282576700108</v>
+        <v>1381.706198400598</v>
       </c>
       <c r="I2" t="n">
-        <v>878.3221884468483</v>
+        <v>1649.645383339229</v>
       </c>
       <c r="J2" t="n">
-        <v>444.1157727331293</v>
+        <v>1292.365541148303</v>
       </c>
       <c r="K2" t="n">
-        <v>1204.827751661909</v>
+        <v>1727.222655673598</v>
       </c>
       <c r="L2" t="n">
-        <v>1556.31006950813</v>
+        <v>1826.46813932078</v>
       </c>
       <c r="M2" t="n">
-        <v>626.1185714632053</v>
+        <v>1543.588429237705</v>
       </c>
       <c r="N2" t="n">
-        <v>1563.222158714229</v>
+        <v>603.9612677923103</v>
       </c>
       <c r="O2" t="n">
-        <v>2245.309173139747</v>
+        <v>547.4125948538272</v>
       </c>
     </row>
   </sheetData>

--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/utilities/costs.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/utilities/costs.xlsx
@@ -513,49 +513,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1699.520191591581</v>
+        <v>1165.953671452007</v>
       </c>
       <c r="B2" t="n">
-        <v>1498.524573067472</v>
+        <v>1359.66797627374</v>
       </c>
       <c r="C2" t="n">
-        <v>580.4670518468688</v>
+        <v>3275.47476587996</v>
       </c>
       <c r="D2" t="n">
-        <v>2316.902167869936</v>
+        <v>1392.544518540569</v>
       </c>
       <c r="E2" t="n">
-        <v>742.2927749227415</v>
+        <v>1147.395946763382</v>
       </c>
       <c r="F2" t="n">
-        <v>3331.751098544604</v>
+        <v>1848.494359993174</v>
       </c>
       <c r="G2" t="n">
-        <v>2396.390061559574</v>
+        <v>930.6311377512628</v>
       </c>
       <c r="H2" t="n">
-        <v>1381.706198400598</v>
+        <v>1265.728910892409</v>
       </c>
       <c r="I2" t="n">
-        <v>1649.645383339229</v>
+        <v>2683.141143885342</v>
       </c>
       <c r="J2" t="n">
-        <v>1292.365541148303</v>
+        <v>1475.078904216599</v>
       </c>
       <c r="K2" t="n">
-        <v>1727.222655673598</v>
+        <v>952.3469269724937</v>
       </c>
       <c r="L2" t="n">
-        <v>1826.46813932078</v>
+        <v>691.9373195950204</v>
       </c>
       <c r="M2" t="n">
-        <v>1543.588429237705</v>
+        <v>692.8188589288889</v>
       </c>
       <c r="N2" t="n">
-        <v>603.9612677923103</v>
+        <v>2415.581075770957</v>
       </c>
       <c r="O2" t="n">
-        <v>547.4125948538272</v>
+        <v>1649.64358160376</v>
       </c>
     </row>
   </sheetData>
